--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone3.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,11 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
       <t>シモヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝典</t>
+    <rPh sb="0" eb="2">
+      <t>カツノリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -378,6 +385,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
       <t>シモヤマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつのり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -360,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -378,6 +382,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone3.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
@@ -34,6 +34,13 @@
   </si>
   <si>
     <t>かつのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝典</t>
+    <rPh sb="0" eb="2">
+      <t>カツノリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -364,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -387,6 +394,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
@@ -34,6 +34,13 @@
   </si>
   <si>
     <t>かつのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝典</t>
+    <rPh sb="0" eb="2">
+      <t>カツノリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -371,30 +378,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone3.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
@@ -41,6 +41,10 @@
     <rPh sb="0" eb="2">
       <t>カツノリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつのり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,32 +375,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -364,25 +364,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
+      <c r="B1">
+        <v>2222</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -364,28 +364,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
       <c r="B1">
         <v>2222</v>
       </c>
+      <c r="C1">
+        <v>333</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone3.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
@@ -48,6 +48,10 @@
     <rPh sb="0" eb="2">
       <t>カツノリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -378,33 +382,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>かつのり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝典</t>
+    <rPh sb="0" eb="2">
+      <t>カツノリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝典</t>
+    <rPh sb="0" eb="2">
+      <t>カツノリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -364,27 +382,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone3.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -394,6 +394,9 @@
       <c r="A1">
         <v>111</v>
       </c>
+      <c r="B1">
+        <v>222</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -394,6 +394,9 @@
       <c r="A1">
         <v>111</v>
       </c>
+      <c r="C1">
+        <v>333</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>下山</t>
     <rPh sb="0" eb="2">
@@ -41,17 +41,6 @@
     <rPh sb="0" eb="2">
       <t>カツノリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勝典</t>
-    <rPh sb="0" eb="2">
-      <t>カツノリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,39 +371,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
-      <c r="C1">
-        <v>333</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone2.git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimoyama.AG\Desktop\clone3.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,30 +371,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
+      <c r="C1">
+        <v>333</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -371,30 +371,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>111</v>
       </c>
+      <c r="B1">
+        <v>222</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
